--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34A7B97-388A-4345-803B-30A07DD351E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA207EA-3335-4965-9998-92DDB5CBFF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -116,6 +117,24 @@
   </si>
   <si>
     <t>Czech Market</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>P32AR-CH</t>
+  </si>
+  <si>
+    <t>P32DR-CH</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
+  </si>
+  <si>
+    <t>PR8ASCH</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2642</t>
   </si>
 </sst>
 </file>
@@ -843,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A025C-871C-4D39-9D9D-1C8A7AA378D4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,4 +1008,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E16A21B-0953-4479-97EF-5D25FB771BF1}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA207EA-3335-4965-9998-92DDB5CBFF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF97D5-3D0C-4605-952B-3CC7EAA8B396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>NGC-3476/T2642</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2435</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -711,7 +718,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E16A21B-0953-4479-97EF-5D25FB771BF1}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1170,4 +1177,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489E173-29F3-40FB-A28B-169779129E71}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF97D5-3D0C-4605-952B-3CC7EAA8B396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD898F9-FF4A-48E5-A9B6-07E9A17A083F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -142,6 +143,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3177</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489E173-29F3-40FB-A28B-169779129E71}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,4 +1335,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570913E4-7BC3-4149-B1B0-910EB7E62029}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD898F9-FF4A-48E5-A9B6-07E9A17A083F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA4A6A-1B3E-455D-8D82-4401223EFA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Itlay" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -149,6 +150,9 @@
   </si>
   <si>
     <t>NGC-2930/T3177</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2219</t>
   </si>
 </sst>
 </file>
@@ -573,7 +577,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570913E4-7BC3-4149-B1B0-910EB7E62029}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,4 +1480,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D8DE80-5A94-47E6-8BE1-BC845604DDE2}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA4A6A-1B3E-455D-8D82-4401223EFA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D4FD19-8F37-4ED5-B1C3-B566DD57BD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
-    <sheet name="Itlay" sheetId="17" r:id="rId7"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D4FD19-8F37-4ED5-B1C3-B566DD57BD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356ABFAE-9CAB-4608-B277-AA34C4A31FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -153,6 +154,9 @@
   </si>
   <si>
     <t>NGC-3145/T2219</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2045</t>
   </si>
 </sst>
 </file>
@@ -1486,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D8DE80-5A94-47E6-8BE1-BC845604DDE2}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1632,4 +1636,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BB98B-58ED-49ED-AF64-2F07DF45D3E4}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356ABFAE-9CAB-4608-B277-AA34C4A31FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55576D3-18E7-4BD8-AEED-A1532138D103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -157,6 +158,12 @@
   </si>
   <si>
     <t>NGC-3145/T2045</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3310</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BB98B-58ED-49ED-AF64-2F07DF45D3E4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1787,4 +1794,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908C502-5ADA-4B60-85E0-3E4830C26773}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55576D3-18E7-4BD8-AEED-A1532138D103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B5CC8-82AB-4648-8FDF-A216C3343B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="43">
   <si>
     <t>Wg</t>
   </si>
@@ -164,6 +165,12 @@
   </si>
   <si>
     <t>NGC-3191/T3310</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2473</t>
   </si>
 </sst>
 </file>
@@ -735,6 +742,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257921C2-B3B0-4E64-B743-DA6A37AF7CBE}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0F211B-57AC-4A31-97DE-F32C83533323}">
   <dimension ref="A1:D21"/>
@@ -1357,7 +1505,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908C502-5ADA-4B60-85E0-3E4830C26773}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B5CC8-82AB-4648-8FDF-A216C3343B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E7EAE-DB3F-4625-A9DD-A9985151FA8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -171,6 +172,12 @@
   </si>
   <si>
     <t>NGC-3139/T2473</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3205</t>
   </si>
 </sst>
 </file>
@@ -746,6 +753,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257921C2-B3B0-4E64-B743-DA6A37AF7CBE}">
   <dimension ref="A1:D19"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFABCD3-E9B3-4CEC-A502-3FA634CFC835}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -770,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -792,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E7EAE-DB3F-4625-A9DD-A9985151FA8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CEB210-E515-4210-9BD3-9A0B6B0DD24B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -178,6 +181,27 @@
   </si>
   <si>
     <t>NGC-4119/T3205</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2188</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2295</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>MZXSDR240</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2783</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -894,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFABCD3-E9B3-4CEC-A502-3FA634CFC835}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1018,6 +1042,447 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48829A-1B91-4BB1-8F42-9A5C8E7B168A}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE106EB5-EA43-4056-933A-276222C520B3}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20346CF-385C-442B-BABB-1570DFD0DD37}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CEB210-E515-4210-9BD3-9A0B6B0DD24B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3B98F-5FA0-429F-ACA2-3C5BB740F904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -202,6 +205,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2910</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2887</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2979</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE106EB5-EA43-4056-933A-276222C520B3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1496,6 +1517,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FAA36F-5E14-482D-9F35-875441F86101}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B15A7-3E79-487D-ACAB-7CD9BEF8A44C}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A757B3-02B6-4ED0-8404-E9F0BE93396F}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0F211B-57AC-4A31-97DE-F32C83533323}">
   <dimension ref="A1:D21"/>

--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3B98F-5FA0-429F-ACA2-3C5BB740F904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490A3EAC-6E0D-4FF0-9C37-2B380988D307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="62">
   <si>
     <t>Wg</t>
   </si>
@@ -223,6 +225,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3071</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3036/T3037</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A757B3-02B6-4ED0-8404-E9F0BE93396F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1855,6 +1869,293 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EBE83A-E422-4123-BACA-5AE83201464C}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2D5FBA-85FA-41A2-9349-14C78CCE6411}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490A3EAC-6E0D-4FF0-9C37-2B380988D307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3709FD-7367-4760-9FAA-B27F9B1A3877}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="64">
   <si>
     <t>Wg</t>
   </si>
@@ -237,6 +238,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3365</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EBE83A-E422-4123-BACA-5AE83201464C}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2398,6 +2405,157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02567B3E-6211-4EC1-9C25-E3A115060181}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A025C-871C-4D39-9D9D-1C8A7AA378D4}">
   <dimension ref="A1:D21"/>
